--- a/Code/Results/Cases/Case_4_150/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_150/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.448273421923091</v>
+        <v>1.573935475788744</v>
       </c>
       <c r="C2">
-        <v>0.4854817330196681</v>
+        <v>0.2129577057665131</v>
       </c>
       <c r="D2">
-        <v>0.2002649363876401</v>
+        <v>0.07831156368222025</v>
       </c>
       <c r="E2">
-        <v>0.03578996820647617</v>
+        <v>0.08597221369884878</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007939259018891206</v>
+        <v>0.002457871387310795</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3255176030698692</v>
+        <v>0.2274027238441789</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.568443826215514</v>
+        <v>3.794447473458831</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.992151577372169</v>
+        <v>1.442913115761371</v>
       </c>
       <c r="C3">
-        <v>0.4368885662703121</v>
+        <v>0.1966891919050511</v>
       </c>
       <c r="D3">
-        <v>0.1732426535262164</v>
+        <v>0.07105671735978092</v>
       </c>
       <c r="E3">
-        <v>0.03612403596417302</v>
+        <v>0.08681787219266823</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007999208323834568</v>
+        <v>0.002461721217078994</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.28521666946979</v>
+        <v>0.2175416844065694</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.414102134293529</v>
+        <v>3.798199984654332</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.713758850430338</v>
+        <v>1.362781786398614</v>
       </c>
       <c r="C4">
-        <v>0.4070855096468904</v>
+        <v>0.1866396841446658</v>
       </c>
       <c r="D4">
-        <v>0.1568717112648415</v>
+        <v>0.06664004036537108</v>
       </c>
       <c r="E4">
-        <v>0.03641828181459239</v>
+        <v>0.0873850738890809</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008037110354161264</v>
+        <v>0.002464210237348917</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2608208858769103</v>
+        <v>0.2116030452407784</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.327258537276919</v>
+        <v>3.803550902884069</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.600655519088605</v>
+        <v>1.330208450467865</v>
       </c>
       <c r="C5">
-        <v>0.3949430852542548</v>
+        <v>0.182529403982727</v>
       </c>
       <c r="D5">
-        <v>0.1502488010823981</v>
+        <v>0.06484964467021825</v>
       </c>
       <c r="E5">
-        <v>0.03655965238891667</v>
+        <v>0.08762826724217909</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008052838896682748</v>
+        <v>0.002465256118770877</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.250957342855358</v>
+        <v>0.2092121862673366</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.293719398400725</v>
+        <v>3.806495172706008</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.58189347039314</v>
+        <v>1.324804589006419</v>
       </c>
       <c r="C6">
-        <v>0.3929268386981164</v>
+        <v>0.1818459938768342</v>
       </c>
       <c r="D6">
-        <v>0.1491517937966904</v>
+        <v>0.06455291853411893</v>
       </c>
       <c r="E6">
-        <v>0.03658439650265066</v>
+        <v>0.08766937714780632</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008055467945193032</v>
+        <v>0.002465431697266827</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2493239406818617</v>
+        <v>0.2088169485714104</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.28825803156613</v>
+        <v>3.807030122591499</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.712232202389146</v>
+        <v>1.362342162187304</v>
       </c>
       <c r="C7">
-        <v>0.4069217496341366</v>
+        <v>0.1865843120214095</v>
       </c>
       <c r="D7">
-        <v>0.1567822055996828</v>
+        <v>0.06661585635589518</v>
       </c>
       <c r="E7">
-        <v>0.03642010269723883</v>
+        <v>0.08738830488236005</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000803732131766621</v>
+        <v>0.002464224214444256</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2606875596684972</v>
+        <v>0.2115706831154966</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.326798905606012</v>
+        <v>3.803587521279468</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.290609148203373</v>
+        <v>1.528693818795944</v>
       </c>
       <c r="C8">
-        <v>0.4687162188902789</v>
+        <v>0.2073610130329939</v>
       </c>
       <c r="D8">
-        <v>0.1908973548784871</v>
+        <v>0.07580219328406201</v>
       </c>
       <c r="E8">
-        <v>0.03588606752858858</v>
+        <v>0.08625383770445438</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007959707888615664</v>
+        <v>0.002459172881915786</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3115432153268216</v>
+        <v>0.2239785385532826</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.513493993090947</v>
+        <v>3.795107489445314</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.441792247066019</v>
+        <v>1.857392059153028</v>
       </c>
       <c r="C9">
-        <v>0.5904538050961037</v>
+        <v>0.2476163619250542</v>
       </c>
       <c r="D9">
-        <v>0.2599003992349083</v>
+        <v>0.09412111809409396</v>
       </c>
       <c r="E9">
-        <v>0.03559187503340588</v>
+        <v>0.08441004193914736</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007815773704463143</v>
+        <v>0.002450256117376818</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.4145271753679793</v>
+        <v>0.2492331490969093</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.949396905690747</v>
+        <v>3.802768556042281</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.303712974560312</v>
+        <v>2.100385250036766</v>
       </c>
       <c r="C10">
-        <v>0.6806953597707093</v>
+        <v>0.2768881927411826</v>
       </c>
       <c r="D10">
-        <v>0.3124143121775802</v>
+        <v>0.1077731700182909</v>
       </c>
       <c r="E10">
-        <v>0.03590377430884928</v>
+        <v>0.08328806037072667</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007714448940948012</v>
+        <v>0.002444301372142688</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.4929178728683041</v>
+        <v>0.2683551394330408</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.322736442341352</v>
+        <v>3.823371891331448</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.700772741264075</v>
+        <v>2.211253501630324</v>
       </c>
       <c r="C11">
-        <v>0.7220384721782693</v>
+        <v>0.2901376316416417</v>
       </c>
       <c r="D11">
-        <v>0.3368312757299776</v>
+        <v>0.11402747724118</v>
       </c>
       <c r="E11">
-        <v>0.03617724069703243</v>
+        <v>0.08282826137288524</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007669163366637892</v>
+        <v>0.002441720532934594</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.5293567628142029</v>
+        <v>0.2771786524517381</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.506719822096954</v>
+        <v>3.836032929927228</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.851976322600137</v>
+        <v>2.253283168298083</v>
       </c>
       <c r="C12">
-        <v>0.7377466979036456</v>
+        <v>0.2951451409776951</v>
       </c>
       <c r="D12">
-        <v>0.3461655019878407</v>
+        <v>0.1164022433007261</v>
       </c>
       <c r="E12">
-        <v>0.03630128159053569</v>
+        <v>0.08266143186523678</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0007652117224466687</v>
+        <v>0.002440761538591396</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.5432842179369715</v>
+        <v>0.2805378893092865</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.578668072486209</v>
+        <v>3.841303036670581</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.819372076813352</v>
+        <v>2.244229287162284</v>
       </c>
       <c r="C13">
-        <v>0.7343611360755347</v>
+        <v>0.2940671218416639</v>
       </c>
       <c r="D13">
-        <v>0.3441510872485054</v>
+        <v>0.1158905092129601</v>
       </c>
       <c r="E13">
-        <v>0.03627362957396052</v>
+        <v>0.08269703734885958</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007655784086869621</v>
+        <v>0.002440967262065339</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.5402786737594312</v>
+        <v>0.2798136183439368</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.563067283064584</v>
+        <v>3.840146826265709</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.713194601561383</v>
+        <v>2.214710386588138</v>
       </c>
       <c r="C14">
-        <v>0.7233296810462662</v>
+        <v>0.2905497993426138</v>
       </c>
       <c r="D14">
-        <v>0.3375973697247474</v>
+        <v>0.1142227220367005</v>
       </c>
       <c r="E14">
-        <v>0.0361870255724579</v>
+        <v>0.08281439011703284</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007667758997600363</v>
+        <v>0.002441641269234245</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.5304998979514437</v>
+        <v>0.2774546587748432</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.512591915869734</v>
+        <v>3.83645695625313</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.64827209252519</v>
+        <v>2.196635200545416</v>
       </c>
       <c r="C15">
-        <v>0.7165797636184834</v>
+        <v>0.2883940598790957</v>
       </c>
       <c r="D15">
-        <v>0.3335948756533753</v>
+        <v>0.113201989518501</v>
       </c>
       <c r="E15">
-        <v>0.03613669484467508</v>
+        <v>0.08288722129930903</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007675106902199728</v>
+        <v>0.002442056500257731</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.5245274243858091</v>
+        <v>0.2760120678277076</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.481978570315562</v>
+        <v>3.834258829723069</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.277875068132175</v>
+        <v>2.093146282815724</v>
       </c>
       <c r="C16">
-        <v>0.6780002358465538</v>
+        <v>0.2760209554232915</v>
       </c>
       <c r="D16">
-        <v>0.3108302411867072</v>
+        <v>0.1073653269458106</v>
       </c>
       <c r="E16">
-        <v>0.03588868074273854</v>
+        <v>0.08331912835575217</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007717423576235051</v>
+        <v>0.002444472603762508</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.4905535769963905</v>
+        <v>0.2677810150721882</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.311017631365758</v>
+        <v>3.822610871675977</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.052010104578358</v>
+        <v>2.029742762317085</v>
       </c>
       <c r="C17">
-        <v>0.6544148171254847</v>
+        <v>0.2684132840077496</v>
       </c>
       <c r="D17">
-        <v>0.2970083833218524</v>
+        <v>0.1037960292880769</v>
       </c>
       <c r="E17">
-        <v>0.03577130050630295</v>
+        <v>0.08359705583781896</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007743581046266322</v>
+        <v>0.002445987523424259</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.4699226167333279</v>
+        <v>0.262763510841225</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.209927871284407</v>
+        <v>3.81630945192336</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.922557512915205</v>
+        <v>1.993305805984107</v>
       </c>
       <c r="C18">
-        <v>0.6408758769204326</v>
+        <v>0.2640313088974438</v>
       </c>
       <c r="D18">
-        <v>0.2891073328707279</v>
+        <v>0.1017471928649059</v>
       </c>
       <c r="E18">
-        <v>0.0357160697043426</v>
+        <v>0.08376167406924573</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007758703031406998</v>
+        <v>0.002446870919023596</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.4581284100801355</v>
+        <v>0.2598893231344306</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.153099569200521</v>
+        <v>3.812994403242101</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.87880213189311</v>
+        <v>1.980974249430119</v>
       </c>
       <c r="C19">
-        <v>0.6362961193446495</v>
+        <v>0.2625465814703318</v>
       </c>
       <c r="D19">
-        <v>0.2864402247833198</v>
+        <v>0.1010541988163709</v>
       </c>
       <c r="E19">
-        <v>0.03569943387195451</v>
+        <v>0.08381822847291609</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007763836676731229</v>
+        <v>0.002447172094694579</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.4541470036264457</v>
+        <v>0.2589181898838291</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.134077475261364</v>
+        <v>3.811925033629365</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.076005406203024</v>
+        <v>2.036488967618936</v>
       </c>
       <c r="C20">
-        <v>0.6569226820557219</v>
+        <v>0.2692237813441807</v>
       </c>
       <c r="D20">
-        <v>0.2984745971017304</v>
+        <v>0.1041755591865154</v>
       </c>
       <c r="E20">
-        <v>0.03578251370685059</v>
+        <v>0.08356697708773808</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.000774078867516617</v>
+        <v>0.002445825010666699</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.4721112308397721</v>
+        <v>0.2632964167597578</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.220551181116406</v>
+        <v>3.816948211030422</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.744357434151993</v>
+        <v>2.223379556250791</v>
       </c>
       <c r="C21">
-        <v>0.7265683726980967</v>
+        <v>0.2915831888937817</v>
       </c>
       <c r="D21">
-        <v>0.3395198631303629</v>
+        <v>0.114712417341579</v>
       </c>
       <c r="E21">
-        <v>0.03621189409950354</v>
+        <v>0.08277972292796676</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007664239009662621</v>
+        <v>0.002441442800912055</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.5333685216697859</v>
+        <v>0.2781470547203639</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.527353874182154</v>
+        <v>3.837527829535759</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.186164400787334</v>
+        <v>2.345792541646176</v>
       </c>
       <c r="C22">
-        <v>0.7723975274886641</v>
+        <v>0.3061393394134484</v>
       </c>
       <c r="D22">
-        <v>0.3668650813407908</v>
+        <v>0.1216361794842129</v>
       </c>
       <c r="E22">
-        <v>0.03661275895345462</v>
+        <v>0.08230768252279752</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0007614799650000548</v>
+        <v>0.002438685475928252</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.5741637912915252</v>
+        <v>0.2879575209940555</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.741275281351818</v>
+        <v>3.853751518443119</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.949859141406648</v>
+        <v>2.280434154751163</v>
       </c>
       <c r="C23">
-        <v>0.7479053414114674</v>
+        <v>0.2983757323861482</v>
       </c>
       <c r="D23">
-        <v>0.3522185374110904</v>
+        <v>0.1179373963290971</v>
       </c>
       <c r="E23">
-        <v>0.03638725115909835</v>
+        <v>0.08255572927987131</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007641137206962385</v>
+        <v>0.002440147379465309</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.5523149998421957</v>
+        <v>0.28271190370981</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.62578745106299</v>
+        <v>3.844837919128508</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.065155893608392</v>
+        <v>2.033438962733442</v>
       </c>
       <c r="C24">
-        <v>0.655788812840342</v>
+        <v>0.2688573811021513</v>
       </c>
       <c r="D24">
-        <v>0.2978115815911195</v>
+        <v>0.104003963759979</v>
       </c>
       <c r="E24">
-        <v>0.03577740617091862</v>
+        <v>0.08358056063395658</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.000774205084398221</v>
+        <v>0.002445898443866228</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4711215515671228</v>
+        <v>0.2630554574725465</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.215744384149843</v>
+        <v>3.816658469676099</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.12798260746689</v>
+        <v>1.768206326399252</v>
       </c>
       <c r="C25">
-        <v>0.5574159793192166</v>
+        <v>0.2367791206585821</v>
       </c>
       <c r="D25">
-        <v>0.2409556566799012</v>
+        <v>0.089131988593806</v>
       </c>
       <c r="E25">
-        <v>0.03558406804755165</v>
+        <v>0.08486801376890796</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007853887311416621</v>
+        <v>0.002452563140357036</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.386245974265421</v>
+        <v>0.2423018181656857</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.822971697566203</v>
+        <v>3.798078369299276</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_150/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_150/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.573935475788744</v>
+        <v>3.448273421923204</v>
       </c>
       <c r="C2">
-        <v>0.2129577057665131</v>
+        <v>0.4854817330192986</v>
       </c>
       <c r="D2">
-        <v>0.07831156368222025</v>
+        <v>0.2002649363876685</v>
       </c>
       <c r="E2">
-        <v>0.08597221369884878</v>
+        <v>0.03578996820646196</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002457871387310795</v>
+        <v>0.0007939259018609636</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2274027238441789</v>
+        <v>0.3255176030698124</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>3.794447473458831</v>
+        <v>2.568443826215429</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.442913115761371</v>
+        <v>2.992151577371999</v>
       </c>
       <c r="C3">
-        <v>0.1966891919050511</v>
+        <v>0.4368885662699995</v>
       </c>
       <c r="D3">
-        <v>0.07105671735978092</v>
+        <v>0.1732426535260743</v>
       </c>
       <c r="E3">
-        <v>0.08681787219266823</v>
+        <v>0.03612403596416591</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002461721217078994</v>
+        <v>0.0007999208323515396</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2175416844065694</v>
+        <v>0.2852166694698752</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>3.798199984654332</v>
+        <v>2.414102134293529</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.362781786398614</v>
+        <v>2.713758850430509</v>
       </c>
       <c r="C4">
-        <v>0.1866396841446658</v>
+        <v>0.4070855096467483</v>
       </c>
       <c r="D4">
-        <v>0.06664004036537108</v>
+        <v>0.1568717112647278</v>
       </c>
       <c r="E4">
-        <v>0.0873850738890809</v>
+        <v>0.0364182818145764</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002464210237348917</v>
+        <v>0.0008037110354144292</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2116030452407784</v>
+        <v>0.2608208858768251</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>3.803550902884069</v>
+        <v>2.327258537276975</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.330208450467865</v>
+        <v>2.600655519088662</v>
       </c>
       <c r="C5">
-        <v>0.182529403982727</v>
+        <v>0.3949430852542264</v>
       </c>
       <c r="D5">
-        <v>0.06484964467021825</v>
+        <v>0.1502488010825402</v>
       </c>
       <c r="E5">
-        <v>0.08762826724217909</v>
+        <v>0.03655965238893444</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002465256118770877</v>
+        <v>0.0008052838896427628</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2092121862673366</v>
+        <v>0.2509573428553722</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>3.806495172706008</v>
+        <v>2.293719398400725</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.324804589006419</v>
+        <v>2.581893470393084</v>
       </c>
       <c r="C6">
-        <v>0.1818459938768342</v>
+        <v>0.3929268386979459</v>
       </c>
       <c r="D6">
-        <v>0.06455291853411893</v>
+        <v>0.1491517937965625</v>
       </c>
       <c r="E6">
-        <v>0.08766937714780632</v>
+        <v>0.03658439650263468</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002465431697266827</v>
+        <v>0.000805546794489651</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2088169485714104</v>
+        <v>0.2493239406818617</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>3.807030122591499</v>
+        <v>2.288258031566215</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.362342162187304</v>
+        <v>2.712232202389089</v>
       </c>
       <c r="C7">
-        <v>0.1865843120214095</v>
+        <v>0.4069217496342219</v>
       </c>
       <c r="D7">
-        <v>0.06661585635589518</v>
+        <v>0.156782205599626</v>
       </c>
       <c r="E7">
-        <v>0.08738830488236005</v>
+        <v>0.03642010269722284</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002464224214444256</v>
+        <v>0.0008037321317392504</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2115706831154966</v>
+        <v>0.2606875596684972</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>3.803587521279468</v>
+        <v>2.326798905605955</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.528693818795944</v>
+        <v>3.290609148203373</v>
       </c>
       <c r="C8">
-        <v>0.2073610130329939</v>
+        <v>0.4687162188903926</v>
       </c>
       <c r="D8">
-        <v>0.07580219328406201</v>
+        <v>0.1908973548785582</v>
       </c>
       <c r="E8">
-        <v>0.08625383770445438</v>
+        <v>0.03588606752859214</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002459172881915786</v>
+        <v>0.0007959707888906114</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2239785385532826</v>
+        <v>0.3115432153268074</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>3.795107489445314</v>
+        <v>2.513493993090918</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.857392059153028</v>
+        <v>4.441792247065962</v>
       </c>
       <c r="C9">
-        <v>0.2476163619250542</v>
+        <v>0.5904538050963311</v>
       </c>
       <c r="D9">
-        <v>0.09412111809409396</v>
+        <v>0.259900399235022</v>
       </c>
       <c r="E9">
-        <v>0.08441004193914736</v>
+        <v>0.03559187503340233</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002450256117376818</v>
+        <v>0.0007815773704451111</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2492331490969093</v>
+        <v>0.4145271753679225</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.802768556042281</v>
+        <v>2.949396905690804</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.100385250036766</v>
+        <v>5.303712974560369</v>
       </c>
       <c r="C10">
-        <v>0.2768881927411826</v>
+        <v>0.6806953597703966</v>
       </c>
       <c r="D10">
-        <v>0.1077731700182909</v>
+        <v>0.3124143121775802</v>
       </c>
       <c r="E10">
-        <v>0.08328806037072667</v>
+        <v>0.03590377430886349</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002444301372142688</v>
+        <v>0.0007714448940578933</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2683551394330408</v>
+        <v>0.4929178728682331</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.823371891331448</v>
+        <v>3.322736442341352</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.211253501630324</v>
+        <v>5.700772741263904</v>
       </c>
       <c r="C11">
-        <v>0.2901376316416417</v>
+        <v>0.7220384721782409</v>
       </c>
       <c r="D11">
-        <v>0.11402747724118</v>
+        <v>0.3368312757299776</v>
       </c>
       <c r="E11">
-        <v>0.08282826137288524</v>
+        <v>0.03617724069701289</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.002441720532934594</v>
+        <v>0.0007669163366552038</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2771786524517381</v>
+        <v>0.5293567628141886</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>3.836032929927228</v>
+        <v>3.506719822097011</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.253283168298083</v>
+        <v>5.851976322599967</v>
       </c>
       <c r="C12">
-        <v>0.2951451409776951</v>
+        <v>0.7377466979034466</v>
       </c>
       <c r="D12">
-        <v>0.1164022433007261</v>
+        <v>0.3461655019880538</v>
       </c>
       <c r="E12">
-        <v>0.08266143186523678</v>
+        <v>0.03630128159053569</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.002440761538591396</v>
+        <v>0.0007652117224472788</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2805378893092865</v>
+        <v>0.543284217936872</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>3.841303036670581</v>
+        <v>3.578668072486266</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.244229287162284</v>
+        <v>5.819372076813295</v>
       </c>
       <c r="C13">
-        <v>0.2940671218416639</v>
+        <v>0.7343611360753926</v>
       </c>
       <c r="D13">
-        <v>0.1158905092129601</v>
+        <v>0.3441510872484912</v>
       </c>
       <c r="E13">
-        <v>0.08269703734885958</v>
+        <v>0.03627362957393743</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002440967262065339</v>
+        <v>0.00076557840872437</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2798136183439368</v>
+        <v>0.5402786737594312</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3.840146826265709</v>
+        <v>3.563067283064584</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.214710386588138</v>
+        <v>5.713194601561497</v>
       </c>
       <c r="C14">
-        <v>0.2905497993426138</v>
+        <v>0.723329681046522</v>
       </c>
       <c r="D14">
-        <v>0.1142227220367005</v>
+        <v>0.3375973697247616</v>
       </c>
       <c r="E14">
-        <v>0.08281439011703284</v>
+        <v>0.03618702557245079</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002441641269234245</v>
+        <v>0.0007667758997899925</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2774546587748432</v>
+        <v>0.5304998979513869</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>3.83645695625313</v>
+        <v>3.512591915869677</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.196635200545416</v>
+        <v>5.648272092525076</v>
       </c>
       <c r="C15">
-        <v>0.2883940598790957</v>
+        <v>0.7165797636185971</v>
       </c>
       <c r="D15">
-        <v>0.113201989518501</v>
+        <v>0.3335948756533753</v>
       </c>
       <c r="E15">
-        <v>0.08288722129930903</v>
+        <v>0.03613669484466797</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002442056500257731</v>
+        <v>0.000767510690181467</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2760120678277076</v>
+        <v>0.5245274243857665</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>3.834258829723069</v>
+        <v>3.481978570315562</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.093146282815724</v>
+        <v>5.277875068132175</v>
       </c>
       <c r="C16">
-        <v>0.2760209554232915</v>
+        <v>0.6780002358466106</v>
       </c>
       <c r="D16">
-        <v>0.1073653269458106</v>
+        <v>0.3108302411867925</v>
       </c>
       <c r="E16">
-        <v>0.08331912835575217</v>
+        <v>0.03588868074273499</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002444472603762508</v>
+        <v>0.0007717423576296759</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2677810150721882</v>
+        <v>0.4905535769965041</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3.822610871675977</v>
+        <v>3.311017631365758</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.029742762317085</v>
+        <v>5.052010104578301</v>
       </c>
       <c r="C17">
-        <v>0.2684132840077496</v>
+        <v>0.6544148171254562</v>
       </c>
       <c r="D17">
-        <v>0.1037960292880769</v>
+        <v>0.2970083833217672</v>
       </c>
       <c r="E17">
-        <v>0.08359705583781896</v>
+        <v>0.0357713005062763</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002445987523424259</v>
+        <v>0.0007743581046255782</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.262763510841225</v>
+        <v>0.469922616733399</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>3.81630945192336</v>
+        <v>3.209927871284378</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.993305805984107</v>
+        <v>4.922557512915148</v>
       </c>
       <c r="C18">
-        <v>0.2640313088974438</v>
+        <v>0.6408758769202052</v>
       </c>
       <c r="D18">
-        <v>0.1017471928649059</v>
+        <v>0.2891073328706568</v>
       </c>
       <c r="E18">
-        <v>0.08376167406924573</v>
+        <v>0.03571606970437458</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.002446870919023596</v>
+        <v>0.0007758703031753067</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2598893231344306</v>
+        <v>0.4581284100802065</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.812994403242101</v>
+        <v>3.153099569200521</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.980974249430119</v>
+        <v>4.878802131892883</v>
       </c>
       <c r="C19">
-        <v>0.2625465814703318</v>
+        <v>0.6362961193446495</v>
       </c>
       <c r="D19">
-        <v>0.1010541988163709</v>
+        <v>0.2864402247832771</v>
       </c>
       <c r="E19">
-        <v>0.08381822847291609</v>
+        <v>0.03569943387196872</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002447172094694579</v>
+        <v>0.0007763836676442033</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2589181898838291</v>
+        <v>0.4541470036263746</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.811925033629365</v>
+        <v>3.134077475261307</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.036488967618936</v>
+        <v>5.076005406202853</v>
       </c>
       <c r="C20">
-        <v>0.2692237813441807</v>
+        <v>0.6569226820555798</v>
       </c>
       <c r="D20">
-        <v>0.1041755591865154</v>
+        <v>0.2984745971017304</v>
       </c>
       <c r="E20">
-        <v>0.08356697708773808</v>
+        <v>0.03578251370685059</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002445825010666699</v>
+        <v>0.0007740788674462187</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2632964167597578</v>
+        <v>0.4721112308397721</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.816948211030422</v>
+        <v>3.220551181116377</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.223379556250791</v>
+        <v>5.74435743415205</v>
       </c>
       <c r="C21">
-        <v>0.2915831888937817</v>
+        <v>0.7265683726979546</v>
       </c>
       <c r="D21">
-        <v>0.114712417341579</v>
+        <v>0.3395198631301639</v>
       </c>
       <c r="E21">
-        <v>0.08277972292796676</v>
+        <v>0.0362118940994911</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002441442800912055</v>
+        <v>0.0007664239008730843</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2781470547203639</v>
+        <v>0.5333685216698143</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>3.837527829535759</v>
+        <v>3.527353874182097</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.345792541646176</v>
+        <v>6.186164400787277</v>
       </c>
       <c r="C22">
-        <v>0.3061393394134484</v>
+        <v>0.7723975274886641</v>
       </c>
       <c r="D22">
-        <v>0.1216361794842129</v>
+        <v>0.3668650813407197</v>
       </c>
       <c r="E22">
-        <v>0.08230768252279752</v>
+        <v>0.03661275895345639</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002438685475928252</v>
+        <v>0.0007614799649723798</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2879575209940555</v>
+        <v>0.5741637912915252</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>3.853751518443119</v>
+        <v>3.741275281351705</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.280434154751163</v>
+        <v>5.949859141406648</v>
       </c>
       <c r="C23">
-        <v>0.2983757323861482</v>
+        <v>0.7479053414113537</v>
       </c>
       <c r="D23">
-        <v>0.1179373963290971</v>
+        <v>0.3522185374110478</v>
       </c>
       <c r="E23">
-        <v>0.08255572927987131</v>
+        <v>0.03638725115908414</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.002440147379465309</v>
+        <v>0.0007641137207058848</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.28271190370981</v>
+        <v>0.5523149998420678</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>3.844837919128508</v>
+        <v>3.62578745106299</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.033438962733442</v>
+        <v>5.065155893608448</v>
       </c>
       <c r="C24">
-        <v>0.2688573811021513</v>
+        <v>0.6557888128401999</v>
       </c>
       <c r="D24">
-        <v>0.104003963759979</v>
+        <v>0.2978115815908779</v>
       </c>
       <c r="E24">
-        <v>0.08358056063395658</v>
+        <v>0.03577740617093816</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002445898443866228</v>
+        <v>0.0007742050843974818</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2630554574725465</v>
+        <v>0.4711215515671086</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.816658469676099</v>
+        <v>3.215744384149872</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.768206326399252</v>
+        <v>4.127982607466606</v>
       </c>
       <c r="C25">
-        <v>0.2367791206585821</v>
+        <v>0.5574159793189892</v>
       </c>
       <c r="D25">
-        <v>0.089131988593806</v>
+        <v>0.2409556566799296</v>
       </c>
       <c r="E25">
-        <v>0.08486801376890796</v>
+        <v>0.03558406804756764</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002452563140357036</v>
+        <v>0.0007853887311457372</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2423018181656857</v>
+        <v>0.3862459742653499</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.798078369299276</v>
+        <v>2.822971697566146</v>
       </c>
     </row>
   </sheetData>
